--- a/FILE BÁO CÁO/FAVVでMAZDAの生産実績.xlsx
+++ b/FILE BÁO CÁO/FAVVでMAZDAの生産実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.25.216.146\d\1. Bao cao moi ngay\2024\THÁNG 11\FILE BÁO CÁO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699935D-79AB-43B1-A4FC-F87F0E3E8F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF1A57-0895-4211-9B73-816C660230F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{74D3065D-52D4-4200-B231-B93DEECB3A78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74D3065D-52D4-4200-B231-B93DEECB3A78}"/>
   </bookViews>
   <sheets>
     <sheet name="050" sheetId="1" r:id="rId1"/>
@@ -5628,12 +5628,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E1082A-2ABF-4E30-A84A-B5EFC77862F9}">
   <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AT21" sqref="AT21"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6090,8 +6090,12 @@
       <c r="AN5" s="30">
         <v>50</v>
       </c>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AO5" s="30">
+        <v>110</v>
+      </c>
+      <c r="AP5" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="17.25" customHeight="1" thickBot="1">
       <c r="B6" s="86"/>
@@ -6207,8 +6211,12 @@
       <c r="AN6" s="11">
         <v>30</v>
       </c>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
+      <c r="AO6" s="11">
+        <v>28</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="B7" s="86"/>
@@ -6324,8 +6332,12 @@
       <c r="AN7" s="10">
         <v>110</v>
       </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
+      <c r="AO7" s="10">
+        <v>90</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="B8" s="86"/>
@@ -6443,8 +6455,12 @@
       <c r="AN8" s="59">
         <v>111</v>
       </c>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
+      <c r="AO8" s="59">
+        <v>96</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="86"/>
@@ -6695,8 +6711,12 @@
       <c r="AN12" s="60">
         <v>109</v>
       </c>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
+      <c r="AO12" s="60">
+        <v>94</v>
+      </c>
+      <c r="AP12" s="60">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="86"/>
@@ -7056,8 +7076,12 @@
       <c r="AN15" s="11">
         <v>54</v>
       </c>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
+      <c r="AO15" s="11">
+        <v>45</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
       <c r="B16" s="86"/>
@@ -7554,8 +7578,12 @@
       <c r="AN19" s="19">
         <v>0.98399999999999999</v>
       </c>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
+      <c r="AO19" s="19">
+        <v>0.998</v>
+      </c>
+      <c r="AP19" s="19">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="86"/>
@@ -7832,11 +7860,11 @@
       </c>
       <c r="AO21" s="36">
         <f t="shared" ref="AO21:AP21" si="23">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>10.971428571428572</v>
       </c>
       <c r="AP21" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>13.695652173913043</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
@@ -7993,11 +8021,11 @@
       </c>
       <c r="AO22" s="18">
         <f t="shared" ref="AO22:AP22" si="41">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>10.742857142857142</v>
       </c>
       <c r="AP22" s="18">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>13.434782608695652</v>
       </c>
     </row>
     <row r="23" spans="2:42">
@@ -8396,17 +8424,30 @@
       </c>
       <c r="AO25" s="9">
         <f t="shared" ref="AO25:AP25" si="52">AO24/(AO24+AO12)*1000000</f>
-        <v>1000000</v>
+        <v>20833.333333333332</v>
       </c>
       <c r="AP25" s="9">
         <f t="shared" si="52"/>
-        <v>1000000</v>
+        <v>9615.3846153846152</v>
       </c>
     </row>
     <row r="29" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="35" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="B2:B25"/>
@@ -8423,19 +8464,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8453,7 +8481,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AU19" sqref="AU19"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8915,8 +8943,12 @@
       <c r="AN5" s="30">
         <v>50</v>
       </c>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
+      <c r="AO5" s="30">
+        <v>110</v>
+      </c>
+      <c r="AP5" s="30">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="86"/>
@@ -9032,8 +9064,12 @@
       <c r="AN6" s="11">
         <v>29</v>
       </c>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
+      <c r="AO6" s="11">
+        <v>89</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="B7" s="86"/>
@@ -9149,8 +9185,12 @@
       <c r="AN7" s="10">
         <v>94</v>
       </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
+      <c r="AO7" s="10">
+        <v>109</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="B8" s="86"/>
@@ -9268,8 +9308,12 @@
       <c r="AN8" s="59">
         <v>107</v>
       </c>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
+      <c r="AO8" s="59">
+        <v>99</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="86"/>
@@ -9520,8 +9564,12 @@
       <c r="AN12" s="60">
         <v>105</v>
       </c>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
+      <c r="AO12" s="60">
+        <v>97</v>
+      </c>
+      <c r="AP12" s="60">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="86"/>
@@ -9881,8 +9929,12 @@
       <c r="AN15" s="11">
         <v>34</v>
       </c>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
+      <c r="AO15" s="11">
+        <v>36</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
       <c r="B16" s="86"/>
@@ -10161,11 +10213,11 @@
       </c>
       <c r="AO17" s="3">
         <f t="shared" ref="AO17:AP17" si="17">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.84385964912280698</v>
       </c>
       <c r="AP17" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.9447619047619048</v>
       </c>
     </row>
     <row r="18" spans="2:42">
@@ -10406,10 +10458,10 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="AO19" s="52">
-        <v>0.91500000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="AP19" s="19">
-        <v>1.0249999999999999</v>
+        <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:42">
@@ -10687,11 +10739,11 @@
       </c>
       <c r="AO21" s="36">
         <f t="shared" ref="AO21:AP21" si="35">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>10.421052631578949</v>
       </c>
       <c r="AP21" s="36">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>13.257142857142858</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
@@ -10848,11 +10900,11 @@
       </c>
       <c r="AO22" s="18">
         <f t="shared" ref="AO22:AP22" si="53">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>10.210526315789474</v>
       </c>
       <c r="AP22" s="18">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>13.028571428571428</v>
       </c>
     </row>
     <row r="23" spans="2:42">
@@ -11251,16 +11303,29 @@
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="63"/>
-        <v>1000000</v>
+        <v>10204.08163265306</v>
       </c>
       <c r="AP25" s="9">
         <f>AP24/(AP24+AP12)*1000000</f>
-        <v>1000000</v>
+        <v>8695.652173913044</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="B2:B25"/>
@@ -11277,19 +11342,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11307,7 +11359,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AQ22" sqref="AQ22"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11764,8 +11816,12 @@
       <c r="AN5" s="30">
         <v>140</v>
       </c>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="30"/>
+      <c r="AO5" s="45">
+        <v>110</v>
+      </c>
+      <c r="AP5" s="30">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="86"/>
@@ -11881,8 +11937,12 @@
       <c r="AN6" s="11">
         <v>55</v>
       </c>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
+      <c r="AO6" s="11">
+        <v>28</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="B7" s="86"/>
@@ -11998,8 +12058,12 @@
       <c r="AN7" s="10">
         <v>216</v>
       </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
+      <c r="AO7" s="10">
+        <v>184</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="B8" s="86"/>
@@ -12117,8 +12181,12 @@
       <c r="AN8" s="59">
         <v>202</v>
       </c>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
+      <c r="AO8" s="59">
+        <v>192</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>206</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="15" hidden="1" customHeight="1">
       <c r="B9" s="86"/>
@@ -12369,8 +12437,12 @@
       <c r="AN12" s="60">
         <v>200</v>
       </c>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
+      <c r="AO12" s="60">
+        <v>190</v>
+      </c>
+      <c r="AP12" s="60">
+        <v>204</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="86"/>
@@ -12730,8 +12802,12 @@
       <c r="AN15" s="11">
         <v>15</v>
       </c>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
+      <c r="AO15" s="11">
+        <v>15</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
       <c r="B16" s="86"/>
@@ -13010,11 +13086,11 @@
       </c>
       <c r="AO17" s="3">
         <f t="shared" ref="AO17:AP17" si="17">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.94666666666666666</v>
       </c>
       <c r="AP17" s="3">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="18" spans="2:42">
@@ -13254,8 +13330,12 @@
       <c r="AN19" s="19">
         <v>1.105</v>
       </c>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
+      <c r="AO19" s="19">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="AP19" s="19">
+        <v>1.1870000000000001</v>
+      </c>
     </row>
     <row r="20" spans="2:42">
       <c r="B20" s="86"/>
@@ -13532,11 +13612,11 @@
       </c>
       <c r="AO21" s="36">
         <f t="shared" ref="AO21:AP21" si="35">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>21.942857142857143</v>
       </c>
       <c r="AP21" s="36">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>20.599999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
@@ -13693,11 +13773,11 @@
       </c>
       <c r="AO22" s="18">
         <f t="shared" ref="AO22:AP22" si="53">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>21.714285714285715</v>
       </c>
       <c r="AP22" s="18">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>20.400000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:42">
@@ -14094,18 +14174,36 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="9" t="e">
+      <c r="AO25" s="9">
         <f t="shared" ref="AO25:AP25" si="71">AO24/(AO24+AO12)*1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="9">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="I2:J2"/>
@@ -14117,24 +14215,6 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14152,7 +14232,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AN25" sqref="AN25"/>
+      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14617,8 +14697,12 @@
       <c r="AL5" s="30">
         <v>80</v>
       </c>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
+      <c r="AM5" s="30">
+        <v>110</v>
+      </c>
+      <c r="AN5" s="30">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="2:40" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="86"/>
@@ -14728,8 +14812,12 @@
       <c r="AL6" s="11">
         <v>54</v>
       </c>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
+      <c r="AM6" s="11">
+        <v>28</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:40" ht="17.45" customHeight="1">
       <c r="B7" s="86"/>
@@ -14839,8 +14927,12 @@
       <c r="AL7" s="10">
         <v>440</v>
       </c>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
+      <c r="AM7" s="10">
+        <v>400</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>420</v>
+      </c>
     </row>
     <row r="8" spans="2:40">
       <c r="B8" s="86"/>
@@ -14952,8 +15044,12 @@
       <c r="AL8" s="59">
         <v>421</v>
       </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
+      <c r="AM8" s="59">
+        <v>404</v>
+      </c>
+      <c r="AN8" s="59">
+        <v>426</v>
+      </c>
     </row>
     <row r="9" spans="2:40" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="86"/>
@@ -15192,8 +15288,12 @@
       <c r="AL12" s="60">
         <v>419</v>
       </c>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
+      <c r="AM12" s="60">
+        <v>402</v>
+      </c>
+      <c r="AN12" s="60">
+        <v>424</v>
+      </c>
     </row>
     <row r="13" spans="2:40">
       <c r="B13" s="86"/>
@@ -15535,8 +15635,12 @@
       <c r="AL15" s="11">
         <v>9</v>
       </c>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
+      <c r="AM15" s="11">
+        <v>7</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:40">
       <c r="B16" s="86"/>
@@ -15801,11 +15905,11 @@
       </c>
       <c r="AM17" s="3">
         <f t="shared" ref="AM17:AN17" si="16">(SUM(AM4:AM5)-AM6)/(SUM(AM4:AM5))</f>
-        <v>1</v>
+        <v>0.9508771929824561</v>
       </c>
       <c r="AN17" s="3">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0.93978494623655917</v>
       </c>
     </row>
     <row r="18" spans="2:40">
@@ -16033,8 +16137,12 @@
       <c r="AL19" s="19">
         <v>0.95599999999999996</v>
       </c>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
+      <c r="AM19" s="19">
+        <v>1.242</v>
+      </c>
+      <c r="AN19" s="19">
+        <v>1.016</v>
+      </c>
     </row>
     <row r="20" spans="2:40">
       <c r="B20" s="86"/>
@@ -16297,11 +16405,11 @@
       </c>
       <c r="AM21" s="36">
         <f t="shared" ref="AM21:AN21" si="33">AM8/SUM(AM4:AM5)*60</f>
-        <v>0</v>
+        <v>42.526315789473685</v>
       </c>
       <c r="AN21" s="36">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>54.967741935483872</v>
       </c>
     </row>
     <row r="22" spans="2:40" ht="15" thickBot="1">
@@ -16450,11 +16558,11 @@
       </c>
       <c r="AM22" s="18">
         <f t="shared" ref="AM22:AN22" si="50">AM12/SUM(AM4:AM5)*60</f>
-        <v>0</v>
+        <v>42.315789473684205</v>
       </c>
       <c r="AN22" s="18">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>54.70967741935484</v>
       </c>
     </row>
     <row r="23" spans="2:40">
@@ -16829,18 +16937,30 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AM25" s="9" t="e">
+      <c r="AM25" s="9">
         <f t="shared" ref="AM25:AN25" si="67">AM24/(AM24+AM12)*1000000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="9">
         <f t="shared" si="67"/>
-        <v>1000000</v>
+        <v>4694.8356807511736</v>
       </c>
     </row>
     <row r="27" spans="2:40" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="E2:F2"/>
@@ -16857,18 +16977,6 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16886,7 +16994,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="CE22" sqref="CE22"/>
+      <selection pane="bottomRight" activeCell="CB12" sqref="CB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16955,7 +17063,7 @@
     <col min="77" max="77" width="9.5" style="65" customWidth="1"/>
     <col min="78" max="78" width="10.625" style="65" customWidth="1"/>
     <col min="79" max="79" width="10.75" style="65" customWidth="1"/>
-    <col min="80" max="80" width="11" style="65" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="11.25" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:80" ht="26.25">
@@ -17557,10 +17665,10 @@
         <v>415</v>
       </c>
       <c r="BZ4" s="66">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="CA4" s="66">
-        <v>460</v>
+        <v>275</v>
       </c>
       <c r="CB4" s="66">
         <v>415</v>
@@ -17758,10 +17866,18 @@
       <c r="BX5" s="67">
         <v>190</v>
       </c>
-      <c r="BY5" s="67"/>
-      <c r="BZ5" s="67"/>
-      <c r="CA5" s="67"/>
-      <c r="CB5" s="67"/>
+      <c r="BY5" s="67">
+        <v>190</v>
+      </c>
+      <c r="BZ5" s="67">
+        <v>140</v>
+      </c>
+      <c r="CA5" s="67">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="67">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" spans="2:80" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="86"/>
@@ -17955,10 +18071,18 @@
       <c r="BX6" s="68">
         <v>57</v>
       </c>
-      <c r="BY6" s="68"/>
-      <c r="BZ6" s="68"/>
-      <c r="CA6" s="68"/>
-      <c r="CB6" s="68"/>
+      <c r="BY6" s="68">
+        <v>56</v>
+      </c>
+      <c r="BZ6" s="68">
+        <v>28</v>
+      </c>
+      <c r="CA6" s="68">
+        <v>87</v>
+      </c>
+      <c r="CB6" s="68">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:80" ht="15">
       <c r="B7" s="86"/>
@@ -18152,10 +18276,18 @@
       <c r="BX7" s="66">
         <v>73</v>
       </c>
-      <c r="BY7" s="66"/>
-      <c r="BZ7" s="66"/>
-      <c r="CA7" s="66"/>
-      <c r="CB7" s="66"/>
+      <c r="BY7" s="66">
+        <v>78</v>
+      </c>
+      <c r="BZ7" s="66">
+        <v>72</v>
+      </c>
+      <c r="CA7" s="66">
+        <v>67</v>
+      </c>
+      <c r="CB7" s="66">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="2:80" ht="15">
       <c r="B8" s="86"/>
@@ -18351,10 +18483,18 @@
       <c r="BX8" s="69">
         <v>112</v>
       </c>
-      <c r="BY8" s="69"/>
-      <c r="BZ8" s="69"/>
-      <c r="CA8" s="69"/>
-      <c r="CB8" s="69"/>
+      <c r="BY8" s="69">
+        <v>105</v>
+      </c>
+      <c r="BZ8" s="69">
+        <v>41</v>
+      </c>
+      <c r="CA8" s="69">
+        <v>31</v>
+      </c>
+      <c r="CB8" s="69">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="2:80" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="86"/>
@@ -18797,10 +18937,18 @@
       <c r="BX12" s="70">
         <v>110</v>
       </c>
-      <c r="BY12" s="70"/>
-      <c r="BZ12" s="70"/>
-      <c r="CA12" s="70"/>
-      <c r="CB12" s="70"/>
+      <c r="BY12" s="70">
+        <v>103</v>
+      </c>
+      <c r="BZ12" s="70">
+        <v>39</v>
+      </c>
+      <c r="CA12" s="70">
+        <v>29</v>
+      </c>
+      <c r="CB12" s="70">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="2:80" ht="15">
       <c r="B13" s="86"/>
@@ -19462,10 +19610,18 @@
       <c r="BX15" s="68">
         <v>35</v>
       </c>
-      <c r="BY15" s="68"/>
-      <c r="BZ15" s="68"/>
-      <c r="CA15" s="68"/>
-      <c r="CB15" s="68"/>
+      <c r="BY15" s="68">
+        <v>45</v>
+      </c>
+      <c r="BZ15" s="68">
+        <v>42</v>
+      </c>
+      <c r="CA15" s="68">
+        <v>36</v>
+      </c>
+      <c r="CB15" s="68">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:80">
       <c r="B16" s="86"/>
@@ -20002,19 +20158,19 @@
       </c>
       <c r="BY17" s="73">
         <f t="shared" ref="BY17:CB17" si="17">(SUM(BY4:BY5)-BY6)/(SUM(BY4:BY5))</f>
-        <v>1</v>
+        <v>0.90743801652892564</v>
       </c>
       <c r="BZ17" s="73">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.91384615384615386</v>
       </c>
       <c r="CA17" s="73">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.6836363636363636</v>
       </c>
       <c r="CB17" s="73">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.94545454545454544</v>
       </c>
     </row>
     <row r="18" spans="2:80">
@@ -20448,10 +20604,18 @@
       <c r="BX19" s="75">
         <v>0.90500000000000003</v>
       </c>
-      <c r="BY19" s="75"/>
-      <c r="BZ19" s="75"/>
-      <c r="CA19" s="75"/>
-      <c r="CB19" s="75"/>
+      <c r="BY19" s="75">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="BZ19" s="75">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="CA19" s="75">
+        <v>0.622</v>
+      </c>
+      <c r="CB19" s="75">
+        <v>0.95599999999999996</v>
+      </c>
     </row>
     <row r="20" spans="2:80">
       <c r="B20" s="86"/>
@@ -20986,19 +21150,19 @@
       </c>
       <c r="BY21" s="77">
         <f t="shared" ref="BY21:CB21" si="35">BY8/SUM(BY4:BY5)*60</f>
-        <v>0</v>
+        <v>10.413223140495868</v>
       </c>
       <c r="BZ21" s="77">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>7.569230769230769</v>
       </c>
       <c r="CA21" s="77">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>6.7636363636363637</v>
       </c>
       <c r="CB21" s="77">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>11.603305785123966</v>
       </c>
     </row>
     <row r="22" spans="2:80" ht="15" thickBot="1">
@@ -21299,19 +21463,19 @@
       </c>
       <c r="BY22" s="78">
         <f t="shared" ref="BY22:CB22" si="53">BY12/SUM(BY4:BY5)*60</f>
-        <v>0</v>
+        <v>10.21487603305785</v>
       </c>
       <c r="BZ22" s="78">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="CA22" s="78">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6.3272727272727272</v>
       </c>
       <c r="CB22" s="78">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>11.404958677685951</v>
       </c>
     </row>
     <row r="23" spans="2:80">
@@ -22074,27 +22238,45 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="BY25" s="81" t="e">
+      <c r="BY25" s="81">
         <f t="shared" ref="BY25:CB25" si="71">BY24/(BY24+BY12)*1000000</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BZ25" s="81">
         <f t="shared" si="71"/>
-        <v>1000000</v>
+        <v>113636.36363636363</v>
       </c>
       <c r="CA25" s="81">
         <f t="shared" si="71"/>
-        <v>1000000</v>
-      </c>
-      <c r="CB25" s="81" t="e">
+        <v>64516.129032258061</v>
+      </c>
+      <c r="CB25" s="81">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:80" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="BY2:CB2"/>
     <mergeCell ref="BU2:BX2"/>
     <mergeCell ref="M2:P2"/>
@@ -22106,24 +22288,6 @@
     <mergeCell ref="BM2:BP2"/>
     <mergeCell ref="BE2:BH2"/>
     <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AO2:AR2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22136,12 +22300,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364AE2E6-8B76-4F3D-9FC3-839D46DB4934}">
   <dimension ref="A1:CN33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="BX1" sqref="BX1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="CQ6" sqref="CQ6"/>
+      <selection pane="bottomRight" activeCell="CP20" sqref="CP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23116,10 +23280,18 @@
       <c r="CJ5" s="30">
         <v>0</v>
       </c>
-      <c r="CK5" s="30"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="30"/>
-      <c r="CN5" s="30"/>
+      <c r="CK5" s="30">
+        <v>110</v>
+      </c>
+      <c r="CL5" s="45">
+        <v>110</v>
+      </c>
+      <c r="CM5" s="30">
+        <v>140</v>
+      </c>
+      <c r="CN5" s="30">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="2:92" ht="21" customHeight="1" thickBot="1">
       <c r="B6" s="86"/>
@@ -23357,10 +23529,18 @@
       <c r="CJ6" s="11">
         <v>24</v>
       </c>
-      <c r="CK6" s="11"/>
-      <c r="CL6" s="46"/>
-      <c r="CM6" s="11"/>
-      <c r="CN6" s="11"/>
+      <c r="CK6" s="11">
+        <v>29</v>
+      </c>
+      <c r="CL6" s="46">
+        <v>35</v>
+      </c>
+      <c r="CM6" s="11">
+        <v>59</v>
+      </c>
+      <c r="CN6" s="11">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="2:92" ht="15">
       <c r="B7" s="86"/>
@@ -23598,10 +23778,18 @@
       <c r="CJ7" s="10">
         <v>140</v>
       </c>
-      <c r="CK7" s="10"/>
-      <c r="CL7" s="44"/>
-      <c r="CM7" s="10"/>
-      <c r="CN7" s="10"/>
+      <c r="CK7" s="10">
+        <v>100</v>
+      </c>
+      <c r="CL7" s="44">
+        <v>90</v>
+      </c>
+      <c r="CM7" s="10">
+        <v>104</v>
+      </c>
+      <c r="CN7" s="10">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" spans="2:92" ht="15">
       <c r="B8" s="86"/>
@@ -23841,10 +24029,18 @@
       <c r="CJ8" s="59">
         <v>163</v>
       </c>
-      <c r="CK8" s="59"/>
-      <c r="CL8" s="47"/>
-      <c r="CM8" s="59"/>
-      <c r="CN8" s="59"/>
+      <c r="CK8" s="59">
+        <v>92</v>
+      </c>
+      <c r="CL8" s="47">
+        <v>106</v>
+      </c>
+      <c r="CM8" s="59">
+        <v>105</v>
+      </c>
+      <c r="CN8" s="59">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="2:92" ht="18.75" hidden="1" customHeight="1">
       <c r="B9" s="86"/>
@@ -24367,10 +24563,18 @@
       <c r="CJ12" s="60">
         <v>161</v>
       </c>
-      <c r="CK12" s="60"/>
-      <c r="CL12" s="48"/>
-      <c r="CM12" s="59"/>
-      <c r="CN12" s="60"/>
+      <c r="CK12" s="60">
+        <v>90</v>
+      </c>
+      <c r="CL12" s="48">
+        <v>104</v>
+      </c>
+      <c r="CM12" s="59">
+        <v>103</v>
+      </c>
+      <c r="CN12" s="60">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="2:92" ht="15">
       <c r="B13" s="86"/>
@@ -25152,10 +25356,18 @@
       <c r="CJ15" s="11">
         <v>7</v>
       </c>
-      <c r="CK15" s="11"/>
-      <c r="CL15" s="11"/>
-      <c r="CM15" s="11"/>
-      <c r="CN15" s="11"/>
+      <c r="CK15" s="11">
+        <v>29</v>
+      </c>
+      <c r="CL15" s="11">
+        <v>32</v>
+      </c>
+      <c r="CM15" s="11">
+        <v>9</v>
+      </c>
+      <c r="CN15" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:92" ht="15">
       <c r="B16" s="86"/>
@@ -25770,19 +25982,19 @@
       </c>
       <c r="CK17" s="3">
         <f t="shared" ref="CK17:CN17" si="19">(SUM(CK4:CK5)-CK6)/(SUM(CK4:CK5))</f>
-        <v>1</v>
+        <v>0.94912280701754381</v>
       </c>
       <c r="CL17" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="CM17" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.90166666666666662</v>
       </c>
       <c r="CN17" s="3">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.94561403508771935</v>
       </c>
     </row>
     <row r="18" spans="2:92" ht="15">
@@ -26295,16 +26507,16 @@
         <v>1.0169999999999999</v>
       </c>
       <c r="CK19" s="19">
-        <v>0.91900000000000004</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="CL19" s="19">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="CM19" s="19">
-        <v>0.96199999999999997</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="CN19" s="19">
-        <v>1.0169999999999999</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="20" spans="2:92" ht="15">
@@ -26918,19 +27130,19 @@
       </c>
       <c r="CK21" s="36">
         <f t="shared" ref="CK21:CN21" si="39">CK8/SUM(CK4:CK5)*60</f>
-        <v>0</v>
+        <v>9.6842105263157894</v>
       </c>
       <c r="CL21" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>12.114285714285714</v>
       </c>
       <c r="CM21" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="CN21" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>14.947368421052632</v>
       </c>
     </row>
     <row r="22" spans="2:92" ht="15.75" thickBot="1">
@@ -27273,19 +27485,19 @@
       </c>
       <c r="CK22" s="18">
         <f t="shared" ref="CK22:CM22" si="59">CK12/SUM(CK4:CK5)*60</f>
-        <v>0</v>
+        <v>9.473684210526315</v>
       </c>
       <c r="CL22" s="18">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>11.885714285714286</v>
       </c>
       <c r="CM22" s="18">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10.299999999999999</v>
       </c>
       <c r="CN22" s="18">
         <f>CN12/SUM(CN4:CN5)*60</f>
-        <v>0</v>
+        <v>14.736842105263158</v>
       </c>
     </row>
     <row r="23" spans="2:92" ht="15">
@@ -28148,30 +28360,34 @@
       </c>
       <c r="CK25" s="9">
         <f t="shared" ref="CK25:CN25" si="78">CK24/(CK24+CK12)*1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="CL25" s="9" t="e">
+        <v>21739.130434782608</v>
+      </c>
+      <c r="CL25" s="9">
         <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="CM25" s="9">
         <f t="shared" si="78"/>
-        <v>1000000</v>
-      </c>
-      <c r="CN25" s="9" t="e">
+        <v>9615.3846153846152</v>
+      </c>
+      <c r="CN25" s="9">
         <f t="shared" si="78"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:92" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="CK2:CN2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="BM2:BP2"/>
+    <mergeCell ref="BI2:BL2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="BA2:BD2"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="C16:C17"/>
@@ -28182,15 +28398,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="BM2:BP2"/>
-    <mergeCell ref="BI2:BL2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="BE2:BH2"/>
     <mergeCell ref="CG2:CJ2"/>
     <mergeCell ref="CC2:CF2"/>
     <mergeCell ref="BU2:BX2"/>
@@ -38550,48 +38762,13 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B347:B364"/>
-    <mergeCell ref="C455:C472"/>
-    <mergeCell ref="C473:C490"/>
-    <mergeCell ref="C491:C508"/>
-    <mergeCell ref="B455:B472"/>
-    <mergeCell ref="B473:B490"/>
-    <mergeCell ref="B491:B508"/>
-    <mergeCell ref="C419:C436"/>
-    <mergeCell ref="C437:C454"/>
-    <mergeCell ref="C239:C256"/>
-    <mergeCell ref="C257:C274"/>
-    <mergeCell ref="C275:C292"/>
-    <mergeCell ref="C383:C400"/>
-    <mergeCell ref="C401:C418"/>
-    <mergeCell ref="C293:C310"/>
-    <mergeCell ref="C311:C328"/>
-    <mergeCell ref="C329:C346"/>
-    <mergeCell ref="C347:C364"/>
-    <mergeCell ref="C365:C382"/>
-    <mergeCell ref="B59:B76"/>
-    <mergeCell ref="C59:C76"/>
-    <mergeCell ref="B77:B94"/>
-    <mergeCell ref="C77:C94"/>
-    <mergeCell ref="C221:C238"/>
-    <mergeCell ref="C149:C166"/>
-    <mergeCell ref="C167:C184"/>
-    <mergeCell ref="C185:C202"/>
-    <mergeCell ref="C203:C220"/>
-    <mergeCell ref="C95:C112"/>
-    <mergeCell ref="C113:C130"/>
-    <mergeCell ref="C131:C148"/>
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="B23:B40"/>
-    <mergeCell ref="C23:C40"/>
-    <mergeCell ref="B41:B58"/>
-    <mergeCell ref="C41:C58"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B509:B526"/>
+    <mergeCell ref="B527:B544"/>
+    <mergeCell ref="B365:B382"/>
+    <mergeCell ref="B383:B400"/>
+    <mergeCell ref="B401:B418"/>
+    <mergeCell ref="B419:B436"/>
+    <mergeCell ref="B437:B454"/>
     <mergeCell ref="C509:C526"/>
     <mergeCell ref="C527:C544"/>
     <mergeCell ref="B95:B112"/>
@@ -38608,13 +38785,48 @@
     <mergeCell ref="B293:B310"/>
     <mergeCell ref="B311:B328"/>
     <mergeCell ref="B329:B346"/>
-    <mergeCell ref="B509:B526"/>
-    <mergeCell ref="B527:B544"/>
-    <mergeCell ref="B365:B382"/>
-    <mergeCell ref="B383:B400"/>
-    <mergeCell ref="B401:B418"/>
-    <mergeCell ref="B419:B436"/>
-    <mergeCell ref="B437:B454"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="B23:B40"/>
+    <mergeCell ref="C23:C40"/>
+    <mergeCell ref="B41:B58"/>
+    <mergeCell ref="C41:C58"/>
+    <mergeCell ref="B59:B76"/>
+    <mergeCell ref="C59:C76"/>
+    <mergeCell ref="B77:B94"/>
+    <mergeCell ref="C77:C94"/>
+    <mergeCell ref="C221:C238"/>
+    <mergeCell ref="C149:C166"/>
+    <mergeCell ref="C167:C184"/>
+    <mergeCell ref="C185:C202"/>
+    <mergeCell ref="C203:C220"/>
+    <mergeCell ref="C95:C112"/>
+    <mergeCell ref="C113:C130"/>
+    <mergeCell ref="C131:C148"/>
+    <mergeCell ref="C239:C256"/>
+    <mergeCell ref="C257:C274"/>
+    <mergeCell ref="C275:C292"/>
+    <mergeCell ref="C383:C400"/>
+    <mergeCell ref="C401:C418"/>
+    <mergeCell ref="C293:C310"/>
+    <mergeCell ref="C311:C328"/>
+    <mergeCell ref="C329:C346"/>
+    <mergeCell ref="C347:C364"/>
+    <mergeCell ref="C365:C382"/>
+    <mergeCell ref="B347:B364"/>
+    <mergeCell ref="C455:C472"/>
+    <mergeCell ref="C473:C490"/>
+    <mergeCell ref="C491:C508"/>
+    <mergeCell ref="B455:B472"/>
+    <mergeCell ref="B473:B490"/>
+    <mergeCell ref="B491:B508"/>
+    <mergeCell ref="C419:C436"/>
+    <mergeCell ref="C437:C454"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.15748031496062992" footer="0.15748031496062992"/>
